--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3188.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3188.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.233220893482324</v>
+        <v>1.007622599601746</v>
       </c>
       <c r="B1">
-        <v>2.406962631918497</v>
+        <v>1.944369316101074</v>
       </c>
       <c r="C1">
-        <v>7.847065118306351</v>
+        <v>3.013760805130005</v>
       </c>
       <c r="D1">
-        <v>2.825282561708778</v>
+        <v>3.679563522338867</v>
       </c>
       <c r="E1">
-        <v>1.364980363941166</v>
+        <v>1.691420197486877</v>
       </c>
     </row>
   </sheetData>
